--- a/MuhJauharParidi/datafixjmuhjauharparidi.xlsx
+++ b/MuhJauharParidi/datafixjmuhjauharparidi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\MuhJauharParidi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDB4683-B273-4066-A34D-8750AE0CDD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC141F-37EE-4701-A115-9E04FD3FA8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{4C305163-CB93-432B-9C28-4E49FAEAC5D9}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{4C305163-CB93-432B-9C28-4E49FAEAC5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="RT" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="589">
   <si>
     <t>NISA ALISTIANA</t>
   </si>
@@ -73,9 +73,6 @@
     <t>5203095406860002</t>
   </si>
   <si>
-    <t>5203094907990009</t>
-  </si>
-  <si>
     <t>5203090306760001</t>
   </si>
   <si>
@@ -829,12 +826,6 @@
     <t>5203090307720003</t>
   </si>
   <si>
-    <t>HUSNUZ ZAMZAMI</t>
-  </si>
-  <si>
-    <t>5203092304950001</t>
-  </si>
-  <si>
     <t>TINA MAYA</t>
   </si>
   <si>
@@ -1742,9 +1733,6 @@
   </si>
   <si>
     <t>5203134104880001</t>
-  </si>
-  <si>
-    <t>MERI HANDAYANI</t>
   </si>
   <si>
     <t>5203130107820718</t>
@@ -1839,7 +1827,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1849,6 +1837,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,7 +1902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1930,6 +1924,11 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2246,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9C68B1-5757-4DA6-8AE0-CEA3F0CFC9E7}">
   <dimension ref="A2:C191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C191" sqref="A2:C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2258,2093 +2257,2093 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C5" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C19" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C21" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="13">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="13">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="13">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="13">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="13">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="13">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="13">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="13">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="13">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="13">
+        <v>49</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="13">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="13">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="13">
+        <v>52</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="13">
+        <v>53</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="13">
+        <v>54</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="13">
+        <v>56</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="13">
+        <v>57</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="13">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="13">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="13">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="13">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="13">
+        <v>62</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="13">
+        <v>63</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="13">
+        <v>64</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="13">
+        <v>65</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="13">
+        <v>66</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="13">
+        <v>67</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="13">
+        <v>68</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="13">
+        <v>69</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="13">
+        <v>70</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="13">
+        <v>71</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="13">
+        <v>72</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="13">
+        <v>73</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="13">
+        <v>74</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="13">
+        <v>75</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="13">
+        <v>76</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="13">
+        <v>77</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="13">
+        <v>78</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="13">
+        <v>79</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="13">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="13">
+        <v>81</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="13">
+        <v>82</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="13">
+        <v>83</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="13">
+        <v>84</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="13">
         <v>85</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="B86" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="B87" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="13">
         <v>87</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="B88" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="13">
         <v>88</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>58</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>61</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>62</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>63</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>64</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>65</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>66</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>67</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>68</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>69</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>70</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>71</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>72</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>73</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>74</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>75</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>76</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>77</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>78</v>
-      </c>
-      <c r="B78" s="5" t="s">
+      <c r="B89" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="13">
         <v>89</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="B90" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="13">
         <v>90</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>79</v>
-      </c>
-      <c r="B79" s="5" t="s">
+      <c r="B91" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="13">
         <v>91</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="B92" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="13">
         <v>92</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>80</v>
-      </c>
-      <c r="B80" s="5" t="s">
+      <c r="B93" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="13">
         <v>93</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="B94" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="13">
         <v>94</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>81</v>
-      </c>
-      <c r="B81" s="5" t="s">
+      <c r="B95" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="13">
         <v>95</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="B96" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="13">
         <v>96</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>82</v>
-      </c>
-      <c r="B82" s="5" t="s">
+      <c r="B97" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="13">
         <v>97</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="B98" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="13">
         <v>98</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>83</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>84</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>85</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>86</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>87</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>88</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>89</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>90</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>91</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>92</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>93</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>94</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>95</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>96</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>97</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>98</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C98" s="5" t="s">
+      <c r="B99" s="17" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99">
+      <c r="C99" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="13">
         <v>99</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C99" s="5" t="s">
+      <c r="B100" s="17" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100">
+      <c r="C100" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="13">
         <v>100</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C100" s="5" t="s">
+      <c r="B101" s="17" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>101</v>
-      </c>
-      <c r="B101" s="5" t="s">
+      <c r="C101" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -4356,8 +4355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5615F3E1-FD87-408A-B9F7-1E372D46692D}">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4368,122 +4367,122 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -4496,7 +4495,7 @@
   <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4507,98 +4506,98 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -4618,34 +4617,34 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4655,10 +4654,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4B30CA-D7C5-4F7B-AD50-7108D5AFFAF0}">
-  <dimension ref="B2:C28"/>
+  <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="A2:C13"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4667,220 +4666,279 @@
     <col min="3" max="3" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -4890,10 +4948,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A20D472-8A0D-45B4-91D3-533BC3950F6B}">
-  <dimension ref="B2:C37"/>
+  <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="A2:C28"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4902,292 +4960,400 @@
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C32" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -5200,7 +5366,7 @@
   <dimension ref="B2:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="A2:C10"/>
+      <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5211,47 +5377,47 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -5299,58 +5465,58 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -5362,7 +5528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B82E1E-199D-4DA2-B5D3-D4DA4524AA4B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/MuhJauharParidi/datafixjmuhjauharparidi.xlsx
+++ b/MuhJauharParidi/datafixjmuhjauharparidi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\MuhJauharParidi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC141F-37EE-4701-A115-9E04FD3FA8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B1E0DC-10DB-4727-B9F3-E3D0B2FF3DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{4C305163-CB93-432B-9C28-4E49FAEAC5D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C305163-CB93-432B-9C28-4E49FAEAC5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="RT" sheetId="2" r:id="rId1"/>
@@ -2245,18 +2245,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9C68B1-5757-4DA6-8AE0-CEA3F0CFC9E7}">
   <dimension ref="A2:C191"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C191" sqref="A2:C191"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" customWidth="1"/>
-    <col min="4" max="4" width="26.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>59</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>61</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>63</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>65</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>68</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>69</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>70</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>71</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>74</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>77</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>79</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>85</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>97</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <v>99</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4355,17 +4355,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5615F3E1-FD87-408A-B9F7-1E372D46692D}">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>525</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>527</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>529</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>531</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>533</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>535</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>537</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>539</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>541</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>543</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>278</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>546</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>287</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>375</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>377</v>
       </c>
@@ -4498,13 +4498,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>384</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>386</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>388</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>548</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>550</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>552</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>554</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>556</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>558</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>234</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>380</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>382</v>
       </c>
@@ -4610,12 +4610,12 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>390</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>392</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>102</v>
       </c>
@@ -4657,16 +4657,16 @@
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="A2" sqref="A2:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -4886,9 +4886,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>30</v>
@@ -4897,9 +4897,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>570</v>
@@ -4908,9 +4908,9 @@
         <v>571</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>572</v>
@@ -4919,9 +4919,9 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>406</v>
@@ -4930,9 +4930,9 @@
         <v>407</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>62</v>
@@ -4954,13 +4954,13 @@
       <selection activeCell="A2" sqref="A2:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5363,19 +5363,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B574855-DF8C-4D87-AB94-6C9A15C01F37}">
-  <dimension ref="B2:C19"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>455</v>
       </c>
@@ -5383,7 +5386,10 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>453</v>
       </c>
@@ -5391,7 +5397,10 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>132</v>
       </c>
@@ -5399,7 +5408,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>457</v>
       </c>
@@ -5407,7 +5419,10 @@
         <v>458</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>226</v>
       </c>
@@ -5415,7 +5430,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>586</v>
       </c>
@@ -5423,7 +5441,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -5431,7 +5452,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -5439,7 +5463,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
@@ -5447,7 +5474,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -5455,7 +5485,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
@@ -5463,7 +5496,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>587</v>
       </c>
@@ -5471,7 +5507,10 @@
         <v>588</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>98</v>
       </c>
@@ -5479,7 +5518,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>160</v>
       </c>
@@ -5487,7 +5529,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
@@ -5495,7 +5540,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>200</v>
       </c>
@@ -5503,7 +5551,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>447</v>
       </c>
@@ -5511,7 +5562,10 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>451</v>
       </c>
@@ -5530,7 +5584,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
